--- a/biology/Médecine/Stephen_Taylor_(baron_Taylor)/Stephen_Taylor_(baron_Taylor).xlsx
+++ b/biology/Médecine/Stephen_Taylor_(baron_Taylor)/Stephen_Taylor_(baron_Taylor).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephen James Lake Taylor, Baron Taylor de Harlow (SJL Taylor), né le 30 décembre 1910 à High Wycombe et mort le 1er février 1988 à Wrexham est un médecin, éducateur et homme politique britannique.
-Il est diplômé en médecine du St Thomas' Hospital en 1935, mais pratiquera peu cette profession, préférant se tourner vers la politique[1]. En 1938, il signe un article remarqué dans le journal The Lancet, relatant son expérience de la pratique psychiatrique auprès des femmes au foyer dans les banlieues anglaises, sous le titre « The suburban neurosis » (la névrose des banlieues)[2].
+Il est diplômé en médecine du St Thomas' Hospital en 1935, mais pratiquera peu cette profession, préférant se tourner vers la politique. En 1938, il signe un article remarqué dans le journal The Lancet, relatant son expérience de la pratique psychiatrique auprès des femmes au foyer dans les banlieues anglaises, sous le titre « The suburban neurosis » (la névrose des banlieues).
 Portion de texte anglais à traduire en français
 Texte anglais à traduire :
 From 1940 to 1944 he was Director of Home intelligence and the Wartime Social Survey in the Ministry of Information, and Labour Member of Parliament for Barnet from 1945 to 1950. He was Parliamentary Private Secretary to the Deputy Prime Minister and Lord President of the Council from 1947 until 1950. He was a policy advisor on the National Health Service.
-In 1951 he was invited by the Nuffield Provincial Hospitals trust to carry out a survey of general practice[3]. He went on to make a significant contribution to the development of general practice, holding a number of positions on medical boards and other organisations[4].
-In August 1958, he was created a life peer as Baron Taylor, de Harlow dans le comté d'Essex[5]. He served in government as Under-Secretary of State for Commonwealth Relations and Under-Secretary of State for the Colonies from 1964 to 1966. He resigned from Labour Party in 1981 to sit with the Social Democratic Party.
-Lord Taylor was also Medical Director of Harlow Industrial Health Service, and President and Vice-Chancellor of Memorial University of Newfoundland from 1967 to 1973. After he retired from this position he became visiting professor of community medicine at Memorial University of Newfoundland in Canada[6].
-In 1962, he mediated the end to the Saskatchewan Doctors' Strike in Saskatchewan, Canada[7].
-Taylor married Charity Clifford, a medical doctor and later Governor of Holloway Prison, in 1939[8].
+In 1951 he was invited by the Nuffield Provincial Hospitals trust to carry out a survey of general practice. He went on to make a significant contribution to the development of general practice, holding a number of positions on medical boards and other organisations.
+In August 1958, he was created a life peer as Baron Taylor, de Harlow dans le comté d'Essex. He served in government as Under-Secretary of State for Commonwealth Relations and Under-Secretary of State for the Colonies from 1964 to 1966. He resigned from Labour Party in 1981 to sit with the Social Democratic Party.
+Lord Taylor was also Medical Director of Harlow Industrial Health Service, and President and Vice-Chancellor of Memorial University of Newfoundland from 1967 to 1973. After he retired from this position he became visiting professor of community medicine at Memorial University of Newfoundland in Canada.
+In 1962, he mediated the end to the Saskatchewan Doctors' Strike in Saskatchewan, Canada.
+Taylor married Charity Clifford, a medical doctor and later Governor of Holloway Prison, in 1939.
 Traduire ce texte • Outils • (+)
 </t>
         </is>
@@ -521,7 +533,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>A Natural History of Everyday Life. A biographical guide of would-be doctors of society, 1940
 Shadows in the Sun: the Story of the Fight Against Tropical Diseases (avec Phyllis Gadsden), 1949
